--- a/7_Part 4 Graphics and tables/xlsx-files/Wohnviertel.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Wohnviertel.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$B$14</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,95 +460,135 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Innenstadt</t>
+          <t>Grünwinkel</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Mühlburg</t>
+          <t>Rüppurr</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>133</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Durlach</t>
+          <t>Neureut</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Neureut</t>
+          <t>Innenstadt-Ost</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Grünwinkel</t>
+          <t>Weststadt</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Südweststadt</t>
+          <t>Innenstadt-West</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Oststadt</t>
+          <t>Oberreut</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Knielingen</t>
+          <t>Oststadt</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
+          <t>Mühlburg</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Knielingen</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Grötzingen</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Durlach</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
           <t>Alle Wohnviertel</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B14" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10"/>
+  <autoFilter ref="A1:B14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>